--- a/files/pre_experiment_state_form_2.xlsx
+++ b/files/pre_experiment_state_form_2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denkabaruhin/PycharmProjects/summer_practice/files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A12928-B269-DD49-AA22-D73596012771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="140">
   <si>
     <t>ID</t>
   </si>
@@ -132,13 +126,351 @@
   </si>
   <si>
     <t>8. Возбужден, в хорошем расположении духа.</t>
+  </si>
+  <si>
+    <t>2025-03-22 08:59:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ощущения хорошие, волнения нет </t>
+  </si>
+  <si>
+    <t>7. Чувствую, что моих способностей достаточно и мои перспективы хороши.</t>
+  </si>
+  <si>
+    <t>2025-04-14 06:06:13</t>
+  </si>
+  <si>
+    <t>Все нормально</t>
+  </si>
+  <si>
+    <t>1. Крайняя депрессия и уныние. Подавлен. Все черно и серо.</t>
+  </si>
+  <si>
+    <t>1. Давящее чувство слабости и тщетности усилий. У меня ничего не получится.</t>
+  </si>
+  <si>
+    <t>2025-04-19 06:05:50</t>
+  </si>
+  <si>
+    <t>Хочу домой 😕</t>
+  </si>
+  <si>
+    <t>5. Несколько озабочен, чувствую себя скованно, немного встревожен.</t>
+  </si>
+  <si>
+    <t>2025-04-24 09:01:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">все хорошо, немного устала после пар, не самая высокая концентрация </t>
+  </si>
+  <si>
+    <t>5. Слегка устал. Леность. Энергии не хватает.</t>
+  </si>
+  <si>
+    <t>2025-04-23 09:01:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спокойствие </t>
+  </si>
+  <si>
+    <t>8. Много энергии, сильная потребность в действии.</t>
+  </si>
+  <si>
+    <t>2025-04-19 08:47:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лёгкое волнение, интрига </t>
+  </si>
+  <si>
+    <t>2025-04-17 09:17:13</t>
+  </si>
+  <si>
+    <t>Норма</t>
+  </si>
+  <si>
+    <t>2025-04-16 06:29:07</t>
+  </si>
+  <si>
+    <t>Небольшое волнение</t>
+  </si>
+  <si>
+    <t>2025-04-19 02:57:14</t>
+  </si>
+  <si>
+    <t>спокойствие, заинтересованность в процессе</t>
+  </si>
+  <si>
+    <t>2025-04-05 03:13:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Глаза болят, не выспалась </t>
+  </si>
+  <si>
+    <t>9. Исключительно хладнокровен, на редкость уверен и не волнуюсь.</t>
+  </si>
+  <si>
+    <t>5. Чувствую себя чуть-чуть подавленно, «так себе».</t>
+  </si>
+  <si>
+    <t>2025-04-25 03:05:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спокойствие, интерес. Ничего страшного не происходит. </t>
+  </si>
+  <si>
+    <t>2025-04-24 06:02:17</t>
+  </si>
+  <si>
+    <t>Комфорт, интрига</t>
+  </si>
+  <si>
+    <t>2025-04-03 08:07:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Интересно, слегка волнительно </t>
+  </si>
+  <si>
+    <t>2025-04-18 03:12:06</t>
+  </si>
+  <si>
+    <t>Интерес и непривичные ощущения</t>
+  </si>
+  <si>
+    <t>2025-04-21 08:50:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физически и эмоционально спокоен. Интересно что будет в конце эксперимента. </t>
+  </si>
+  <si>
+    <t>9. Возбужден, в приподнятом состоянии. Восторженность.</t>
+  </si>
+  <si>
+    <t>2025-04-22 08:58:03</t>
+  </si>
+  <si>
+    <t>Эмоцициональное состояние: в целом спокойствие, настроение хорошое, есть предвкушение от предстоящего процесса
+Физическое состояние: все отличное</t>
+  </si>
+  <si>
+    <t>10. Для меня нет ничего невозможного. Смогу сделать все, что хочу.</t>
+  </si>
+  <si>
+    <t>2025-04-27 05:09:35</t>
+  </si>
+  <si>
+    <t>Особо никаких, всё спокойно</t>
+  </si>
+  <si>
+    <t>2025-04-28 06:00:32</t>
+  </si>
+  <si>
+    <t>Спокойствие, расслабленность</t>
+  </si>
+  <si>
+    <t>2025-04-25 08:56:26</t>
+  </si>
+  <si>
+    <t>Спокойствие, комфортное состояние, спать не хочется, ко всему готов</t>
+  </si>
+  <si>
+    <t>2025-04-29 06:11:08</t>
+  </si>
+  <si>
+    <t>Расслаблен, спокоен, уютно:)</t>
+  </si>
+  <si>
+    <t>2025-04-25 06:12:11</t>
+  </si>
+  <si>
+    <t>Физические ощущения: расслабленность. Эмоциональные: интерес, комфорт</t>
+  </si>
+  <si>
+    <t>9. Чувствую большую уверенность в себе. Уверен в своих свершениях.</t>
+  </si>
+  <si>
+    <t>2025-04-20 08:52:36</t>
+  </si>
+  <si>
+    <t>Немного взволнован. В остальном порядок.</t>
+  </si>
+  <si>
+    <t>2025-04-16 08:55:40</t>
+  </si>
+  <si>
+    <t>Спокойствие, любопытство</t>
+  </si>
+  <si>
+    <t>2025-04-29 09:09:22</t>
+  </si>
+  <si>
+    <t>Выспался, настроение приподнятое, немного устал после пар</t>
+  </si>
+  <si>
+    <t>2025-04-15 08:55:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спокойствие и покой </t>
+  </si>
+  <si>
+    <t>2025-04-18 08:51:39</t>
+  </si>
+  <si>
+    <t>интересно поучаствовать в эксперименте</t>
+  </si>
+  <si>
+    <t>5. Чувствую, что мои умения и способности несколько ограничены.</t>
+  </si>
+  <si>
+    <t>2025-04-21 06:27:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Присоски она ЭКГ новые, не как в поликлинике!!
+Шапка тянет немного, но вроде как поправили.
+Вроде все норм, особо не волнительно.
+Голодный.
+Гель не прикольно заливается в шапку. Прохладно </t>
+  </si>
+  <si>
+    <t>2025-04-29 03:34:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Состояние такое: не выспался, устал, чутка подавлен </t>
+  </si>
+  <si>
+    <t>4. Довольно усталый. В запасе не очень много энергии.</t>
+  </si>
+  <si>
+    <t>2025-04-17 06:38:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сейчас все норм(была эпилепсия, сейчас ремиссия) </t>
+  </si>
+  <si>
+    <t>2025-04-18 06:05:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лёгкая головная боль, спокойствие </t>
+  </si>
+  <si>
+    <t>2025-04-07 07:04:23</t>
+  </si>
+  <si>
+    <t>Спокойствие, предвкушение, любопытство, комфорт, скованность в движении, жарко, сонливость</t>
+  </si>
+  <si>
+    <t>2025-04-14 09:08:06</t>
+  </si>
+  <si>
+    <t>На веселе, позитиве, все нормально, никаких негативных эмоций не испытываю</t>
+  </si>
+  <si>
+    <t>10. Порыв, не знающий преград. Жизненная сила выплескивается через край.</t>
+  </si>
+  <si>
+    <t>10. Сильный подъем, восторженное веселье.</t>
+  </si>
+  <si>
+    <t>2025-04-20 05:55:16</t>
+  </si>
+  <si>
+    <t>Ничего</t>
+  </si>
+  <si>
+    <t>2025-04-23 03:48:42</t>
+  </si>
+  <si>
+    <t>Положительные, новые эмоции, радостные, позитивные эмоции</t>
+  </si>
+  <si>
+    <t>2025-04-15 06:09:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Немного нервничаю , интерес </t>
+  </si>
+  <si>
+    <t>2025-04-22 05:56:26</t>
+  </si>
+  <si>
+    <t>ничего сильно не испытываю, спокоен</t>
+  </si>
+  <si>
+    <t>2025-05-03 06:49:57</t>
+  </si>
+  <si>
+    <t>В полном здравии и боевом расположении духа</t>
+  </si>
+  <si>
+    <t>2025-04-28 03:27:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спокойный, выспался, чувствую себя бодро, настроение хорошее </t>
+  </si>
+  <si>
+    <t>2025-04-23 06:21:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Готов к эксперименту, физического дискомфорта нет, эмоционально настроение хорошее </t>
+  </si>
+  <si>
+    <t>2025-05-03 03:02:26</t>
+  </si>
+  <si>
+    <t>Спокойствие, сонливость</t>
+  </si>
+  <si>
+    <t>2025-04-04 03:20:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всё в порядке. Немного неловко </t>
+  </si>
+  <si>
+    <t>2025-04-21 03:16:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Состояние обычное, спокойное </t>
+  </si>
+  <si>
+    <t>2025-04-24 03:39:44</t>
+  </si>
+  <si>
+    <t>Физическое состояние хорошее, выспался, поел. Пиво не пил, поэтому всё точно хорошо. Испытываю интерес и немного переживаю, хотя знаю что ничего плохого не будет</t>
+  </si>
+  <si>
+    <t>2025-04-07 02:59:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чувствую себя спокойной, ничего не беспокоит, хочется немного спать в следствии 5 часового сна, чувство голода отсутствует, поел плотно, внешних раздражающих факторов не ощущаю, чувство лёгкой эйфории т.к давно не играл и игра очень импонирует. </t>
+  </si>
+  <si>
+    <t>2025-04-22 03:28:48</t>
+  </si>
+  <si>
+    <t>Я испытываю некое волнение, так как подобным раньше не занимался, а физически ничего особенного</t>
+  </si>
+  <si>
+    <t>2025-04-27 08:36:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спокойствие, ожидание, любопытство, интерес </t>
+  </si>
+  <si>
+    <t>2025-04-20 03:12:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физически чувствую себя хорошо. Эмоционально тоже. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,23 +482,353 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Liberation Sans"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -174,9 +836,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -185,17 +1089,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -414,25 +1362,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="P56" sqref="A6:P56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="17.5"/>
-    <col min="3" max="3" width="34.83203125"/>
+    <col min="2" max="2" width="17.5714285714286"/>
+    <col min="3" max="3" width="34.847619047619"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,6 +1411,7 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2"/>
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -486,6 +1435,7 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
+      <c r="C3"/>
       <c r="D3" t="s">
         <v>16</v>
       </c>
@@ -509,6 +1459,7 @@
       <c r="B4" t="s">
         <v>22</v>
       </c>
+      <c r="C4"/>
       <c r="D4" t="s">
         <v>23</v>
       </c>
@@ -532,6 +1483,7 @@
       <c r="B5" t="s">
         <v>27</v>
       </c>
+      <c r="C5"/>
       <c r="D5" t="s">
         <v>28</v>
       </c>
@@ -549,149 +1501,1142 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>105832</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>113244</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>120125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>135304</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>146831</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>155121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>195499</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>208114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>241446</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>265094</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="2"/>
+      <c r="A16" s="2">
+        <v>300279</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>319924</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>325017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>333752</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <v>344772</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
+        <v>355835</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
+        <v>365415</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2">
+        <v>373596</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2">
+        <v>443408</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2">
+        <v>446415</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2">
+        <v>447885</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2">
+        <v>475645</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2">
+        <v>483009</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2">
+        <v>489107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2">
+        <v>527415</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2">
+        <v>557394</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2">
+        <v>587707</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2">
+        <v>632847</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2">
+        <v>648208</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2">
+        <v>666522</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>679594</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>710022</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>735684</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>761404</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>814770</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>820694</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2">
+        <v>825526</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2">
+        <v>834979</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2">
+        <v>841045</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2">
+        <v>845926</v>
+      </c>
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2">
+        <v>862274</v>
+      </c>
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2">
+        <v>863463</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2">
+        <v>885292</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2">
+        <v>902176</v>
+      </c>
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2">
+        <v>907623</v>
+      </c>
+      <c r="B50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2">
+        <v>913071</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2">
+        <v>971006</v>
+      </c>
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H53" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:H53">
+      <sortCondition ref="A1:A53"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>